--- a/Platform_Lifecycle.xlsx
+++ b/Platform_Lifecycle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kfplc.sharepoint.com/sites/IT-ApplicationsUpgrades/Shared Documents/05 - Design/Data/Platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="6_{2E8FB9FE-040D-4E80-8501-C1892774F2DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{DA06B34B-2E0B-4A86-AA61-1E6185B3E878}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="6_{2E8FB9FE-040D-4E80-8501-C1892774F2DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{4D0A44F5-29E8-4CD1-9EA8-C7AECBE358DC}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1845" windowWidth="24060" windowHeight="12525" xr2:uid="{D947B9CA-445E-41C6-A998-78FD7EA8C47B}"/>
+    <workbookView xWindow="750" yWindow="1095" windowWidth="24060" windowHeight="12525" xr2:uid="{D947B9CA-445E-41C6-A998-78FD7EA8C47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Lifecycle" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="221">
   <si>
     <t>Application Manufacturer</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>JDA WFM 2018</t>
+  </si>
+  <si>
+    <t>Red Hat Enterprise Linux 3</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3DB3FF-2334-4B1F-BDEE-F95C10E2B777}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1707,16 +1710,16 @@
         <v>2003</v>
       </c>
       <c r="E16" s="3">
-        <v>37622</v>
+        <v>37769</v>
       </c>
       <c r="F16" s="3">
-        <v>40360</v>
+        <v>39182</v>
       </c>
       <c r="G16" s="3">
-        <v>42186</v>
+        <v>39182</v>
       </c>
       <c r="H16" s="3">
-        <v>42186</v>
+        <v>39182</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1915,16 +1918,16 @@
         <v>2003</v>
       </c>
       <c r="E24" s="3">
-        <v>37622</v>
+        <v>38781</v>
       </c>
       <c r="F24" s="3">
-        <v>40360</v>
+        <v>39917</v>
       </c>
       <c r="G24" s="3">
-        <v>42186</v>
+        <v>39917</v>
       </c>
       <c r="H24" s="3">
-        <v>42186</v>
+        <v>39917</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1941,16 +1944,16 @@
         <v>2003</v>
       </c>
       <c r="E25" s="3">
-        <v>37622</v>
+        <v>37769</v>
       </c>
       <c r="F25" s="3">
-        <v>40360</v>
+        <v>39182</v>
       </c>
       <c r="G25" s="3">
-        <v>42186</v>
+        <v>39182</v>
       </c>
       <c r="H25" s="3">
-        <v>42186</v>
+        <v>39182</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2045,16 +2048,16 @@
         <v>2003</v>
       </c>
       <c r="E29" s="3">
-        <v>37622</v>
+        <v>37769</v>
       </c>
       <c r="F29" s="3">
-        <v>40360</v>
+        <v>39182</v>
       </c>
       <c r="G29" s="3">
-        <v>42186</v>
+        <v>39182</v>
       </c>
       <c r="H29" s="3">
-        <v>42186</v>
+        <v>39182</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2577,7 +2580,7 @@
         <v>82</v>
       </c>
       <c r="D49" s="6">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3">
         <v>43403</v>
@@ -2603,7 +2606,7 @@
         <v>83</v>
       </c>
       <c r="D50" s="6">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3">
         <v>43200</v>
@@ -2629,7 +2632,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="6">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="E51" s="3">
         <v>42947</v>
@@ -2655,7 +2658,7 @@
         <v>85</v>
       </c>
       <c r="D52" s="6">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="E52" s="3">
         <v>42677</v>
@@ -2681,7 +2684,7 @@
         <v>86</v>
       </c>
       <c r="D53" s="6">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="E53" s="3">
         <v>42327</v>
@@ -2707,7 +2710,7 @@
         <v>87</v>
       </c>
       <c r="D54" s="6">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="E54" s="3">
         <v>42068</v>
@@ -2759,7 +2762,7 @@
         <v>89</v>
       </c>
       <c r="D56" s="6">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="E56" s="3">
         <v>43270</v>
@@ -2785,7 +2788,7 @@
         <v>90</v>
       </c>
       <c r="D57" s="6">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="E57" s="3">
         <v>42815</v>
@@ -2811,7 +2814,7 @@
         <v>91</v>
       </c>
       <c r="D58" s="6">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="E58" s="3">
         <v>42500</v>
@@ -2837,7 +2840,7 @@
         <v>92</v>
       </c>
       <c r="D59" s="6">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3">
         <v>42207</v>
@@ -2863,7 +2866,7 @@
         <v>93</v>
       </c>
       <c r="D60" s="6">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="E60" s="3">
         <v>41926</v>
@@ -2889,7 +2892,7 @@
         <v>94</v>
       </c>
       <c r="D61" s="6">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E61" s="3">
         <v>41599</v>
@@ -2915,7 +2918,7 @@
         <v>95</v>
       </c>
       <c r="D62" s="6">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="E62" s="3">
         <v>41326</v>
@@ -2941,7 +2944,7 @@
         <v>96</v>
       </c>
       <c r="D63" s="6">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="E63" s="3">
         <v>41080</v>
@@ -2967,7 +2970,7 @@
         <v>97</v>
       </c>
       <c r="D64" s="6">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="E64" s="3">
         <v>40883</v>
@@ -2993,7 +2996,7 @@
         <v>98</v>
       </c>
       <c r="D65" s="6">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="E65" s="3">
         <v>41326</v>
@@ -3045,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="D67" s="6">
-        <v>5.1100000000000003</v>
+        <v>5</v>
       </c>
       <c r="E67" s="3">
         <v>40556</v>
@@ -3074,7 +3077,7 @@
         <v>102</v>
       </c>
       <c r="D68" s="6">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="3">
         <v>40556</v>
@@ -3100,7 +3103,7 @@
         <v>103</v>
       </c>
       <c r="D69" s="6">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="E69" s="3">
         <v>40058</v>
@@ -3129,7 +3132,7 @@
         <v>105</v>
       </c>
       <c r="D70" s="6">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="3">
         <v>40058</v>
@@ -3155,7 +3158,7 @@
         <v>106</v>
       </c>
       <c r="D71" s="6">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="E71" s="3">
         <v>39833</v>
@@ -3181,7 +3184,7 @@
         <v>107</v>
       </c>
       <c r="D72" s="6">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E72" s="3">
         <v>39589</v>
@@ -3207,7 +3210,7 @@
         <v>108</v>
       </c>
       <c r="D73" s="6">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E73" s="3">
         <v>39589</v>
@@ -3236,7 +3239,7 @@
         <v>110</v>
       </c>
       <c r="D74" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="3">
         <v>38397</v>
@@ -3259,7 +3262,7 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="D75" s="6">
         <v>3</v>
@@ -5584,15 +5587,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D0897D-A39D-404A-8F51-C44623F4FD8B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7f72d030-86fb-4d11-bf7a-b8da6c7a9df6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cc7d0bfc-ddb0-491f-9f2c-8f9d82613076"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f72d030-86fb-4d11-bf7a-b8da6c7a9df6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cc7d0bfc-ddb0-491f-9f2c-8f9d82613076"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Platform_Lifecycle.xlsx
+++ b/Platform_Lifecycle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kfplc.sharepoint.com/sites/IT-ApplicationsUpgrades/Shared Documents/05 - Design/Data/Platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="6_{2E8FB9FE-040D-4E80-8501-C1892774F2DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{4D0A44F5-29E8-4CD1-9EA8-C7AECBE358DC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="107_{0314CDC3-9801-4EFD-A3B2-E2EF28CDCA85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{06857F96-A9E3-4F2D-8AB5-44E84B618DA8}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1095" windowWidth="24060" windowHeight="12525" xr2:uid="{D947B9CA-445E-41C6-A998-78FD7EA8C47B}"/>
+    <workbookView xWindow="3735" yWindow="1620" windowWidth="24060" windowHeight="12525" xr2:uid="{D947B9CA-445E-41C6-A998-78FD7EA8C47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Lifecycle" sheetId="1" r:id="rId1"/>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3DB3FF-2334-4B1F-BDEE-F95C10E2B777}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2586,13 +2586,13 @@
         <v>43403</v>
       </c>
       <c r="F49" s="3">
-        <v>44135</v>
+        <v>45473</v>
       </c>
       <c r="G49" s="3">
-        <v>44135</v>
+        <v>45473</v>
       </c>
       <c r="H49" s="3">
-        <v>44135</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2768,13 +2768,13 @@
         <v>43270</v>
       </c>
       <c r="F56" s="3">
-        <v>44012</v>
+        <v>44165</v>
       </c>
       <c r="G56" s="3">
-        <v>44012</v>
+        <v>44165</v>
       </c>
       <c r="H56" s="3">
-        <v>44012</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5366,6 +5366,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="cc7d0bfc-ddb0-491f-9f2c-8f9d82613076">
@@ -5384,7 +5393,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066D649A32474FC44A35B8393052999E8" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6c6f379feb45c60239702e80b4b6e57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f72d030-86fb-4d11-bf7a-b8da6c7a9df6" xmlns:ns3="cc7d0bfc-ddb0-491f-9f2c-8f9d82613076" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="acda6fa5743eadb071e9037f583be3d9" ns2:_="" ns3:_="">
     <xsd:import namespace="7f72d030-86fb-4d11-bf7a-b8da6c7a9df6"/>
@@ -5575,33 +5584,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D0897D-A39D-404A-8F51-C44623F4FD8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C95149-D72B-45D9-8788-20409C5EE9C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7f72d030-86fb-4d11-bf7a-b8da6c7a9df6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cc7d0bfc-ddb0-491f-9f2c-8f9d82613076"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D0897D-A39D-404A-8F51-C44623F4FD8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cc7d0bfc-ddb0-491f-9f2c-8f9d82613076"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7f72d030-86fb-4d11-bf7a-b8da6c7a9df6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9A1847-EE7A-4CF7-85CE-C71A5D8AB8CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5618,12 +5626,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C95149-D72B-45D9-8788-20409C5EE9C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>